--- a/Python/Work/update_exel_tables/test/data.xlsx
+++ b/Python/Work/update_exel_tables/test/data.xlsx
@@ -16,19 +16,55 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Колонка 1</t>
-  </si>
-  <si>
-    <t>Колонка 2</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+  <si>
+    <t>Лимиты бюджетных обязательств на 2025</t>
+  </si>
+  <si>
+    <t>Бюджетные обязательства на 2025</t>
+  </si>
+  <si>
+    <t>Предварительные заявки на 2025</t>
+  </si>
+  <si>
+    <t>Остаток средств на 2025</t>
+  </si>
+  <si>
+    <t>Ремонт</t>
+  </si>
+  <si>
+    <t>КВР</t>
+  </si>
+  <si>
+    <t>КОСГУ</t>
+  </si>
+  <si>
+    <t>Рег.класс</t>
+  </si>
+  <si>
+    <t>доп.код</t>
+  </si>
+  <si>
+    <t>КБК</t>
+  </si>
+  <si>
+    <t>цст</t>
+  </si>
+  <si>
+    <t>mac123mac</t>
+  </si>
+  <si>
+    <t>Содержание</t>
+  </si>
+  <si>
+    <t>pepsi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -37,16 +73,59 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4" tint="0.79998168889431442"/>
+      <name val="Antique Olive Compact"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="6" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Albertus Extra Bold"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -54,12 +133,85 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -354,26 +506,214 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" style="3" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" style="3"/>
+    <col min="4" max="4" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="27" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="22.85546875" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" ht="26.25" customHeight="1">
+      <c r="A1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="5">
+        <v>2025</v>
+      </c>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" spans="1:9" ht="30.75" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G2" s="2" t="s">
         <v>1</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="18.75">
+      <c r="A3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="4">
+        <v>244</v>
+      </c>
+      <c r="C4" s="4">
+        <v>225</v>
+      </c>
+      <c r="D4" s="4">
+        <v>2254</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4">
+        <v>15678</v>
+      </c>
+      <c r="G4" s="4">
+        <v>12243</v>
+      </c>
+      <c r="H4" s="4">
+        <v>442</v>
+      </c>
+      <c r="I4" s="4">
+        <f>F4-G4-H4</f>
+        <v>2993</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4">
+        <v>243</v>
+      </c>
+      <c r="C5" s="4">
+        <v>225</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2254</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4">
+        <v>553</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>360</v>
+      </c>
+      <c r="I5" s="4">
+        <f>F5-G5-H5</f>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="18.75">
+      <c r="A6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="4">
+        <v>244</v>
+      </c>
+      <c r="C7" s="4">
+        <v>225</v>
+      </c>
+      <c r="D7" s="4">
+        <v>2254</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4">
+        <v>16666</v>
+      </c>
+      <c r="G7" s="4">
+        <v>12000</v>
+      </c>
+      <c r="H7" s="4">
+        <v>3541</v>
+      </c>
+      <c r="I7" s="4">
+        <f>F7-G7-H7</f>
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="4">
+        <v>243</v>
+      </c>
+      <c r="C8" s="4">
+        <v>225</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2254</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>500</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <f>F8-G8-H8</f>
+        <v>-500</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>

--- a/Python/Work/update_exel_tables/test/data.xlsx
+++ b/Python/Work/update_exel_tables/test/data.xlsx
@@ -1794,7 +1794,7 @@
         <v>6054024001.72</v>
       </c>
       <c r="L5" s="9" t="n">
-        <v>5382368033.21</v>
+        <v>6054024001.72</v>
       </c>
       <c r="M5" s="10" t="n">
         <v>0</v>
@@ -1807,7 +1807,7 @@
         <v>1651991900</v>
       </c>
       <c r="P5" s="13" t="n">
-        <v>1215974237.06</v>
+        <v>1037668195.96</v>
       </c>
       <c r="Q5" s="13" t="n">
         <v>263941664.77</v>
@@ -1820,7 +1820,7 @@
         <v>5984474800</v>
       </c>
       <c r="T5" s="9" t="n">
-        <v>363456479.33</v>
+        <v>0</v>
       </c>
       <c r="U5" s="10" t="n">
         <v>0</v>
@@ -2123,7 +2123,7 @@
         <v>4706634363.37</v>
       </c>
       <c r="L10" s="9" t="n">
-        <v>3575812887.61</v>
+        <v>3476532568.61</v>
       </c>
       <c r="M10" s="10" t="n">
         <v>0</v>
@@ -2136,7 +2136,7 @@
         <v>3319376187.83</v>
       </c>
       <c r="P10" s="13" t="n">
-        <v>1961955101.84</v>
+        <v>1888408757.92</v>
       </c>
       <c r="Q10" s="13" t="n">
         <v>18104985.33</v>
@@ -4449,7 +4449,7 @@
         <v>1275369800</v>
       </c>
       <c r="L45" s="27" t="n">
-        <v>736460706.6</v>
+        <v>1271101606.59</v>
       </c>
       <c r="M45" s="10" t="n">
         <v>0</v>

--- a/Python/Work/update_exel_tables/test/data.xlsx
+++ b/Python/Work/update_exel_tables/test/data.xlsx
@@ -2086,10 +2086,10 @@
       <c r="I8" s="7" t="n"/>
       <c r="J8" s="7" t="n"/>
       <c r="K8" s="8" t="n">
-        <v>708740377.52</v>
+        <v>555555</v>
       </c>
       <c r="L8" s="8" t="n">
-        <v>708740377.52</v>
+        <v>111111</v>
       </c>
       <c r="M8" s="9" t="n">
         <v>0</v>
@@ -2165,10 +2165,10 @@
       <c r="I9" s="7" t="n"/>
       <c r="J9" s="7" t="n"/>
       <c r="K9" s="8" t="n">
-        <v>16400226.11</v>
+        <v>66666</v>
       </c>
       <c r="L9" s="8" t="n">
-        <v>16105526.11</v>
+        <v>22222</v>
       </c>
       <c r="M9" s="9" t="n">
         <v>0</v>
@@ -2244,10 +2244,10 @@
       <c r="I10" s="7" t="n"/>
       <c r="J10" s="7" t="n"/>
       <c r="K10" s="8" t="n">
-        <v>4706634363.37</v>
+        <v>777777</v>
       </c>
       <c r="L10" s="8" t="n">
-        <v>3476532568.61</v>
+        <v>3333</v>
       </c>
       <c r="M10" s="9" t="n">
         <v>0</v>
@@ -2323,10 +2323,10 @@
       <c r="I11" s="7" t="n"/>
       <c r="J11" s="7" t="n"/>
       <c r="K11" s="8" t="n">
-        <v>6347033</v>
+        <v>888888</v>
       </c>
       <c r="L11" s="8" t="n">
-        <v>6324986.21</v>
+        <v>44444</v>
       </c>
       <c r="M11" s="9" t="n">
         <v>0</v>
